--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2319676.272440567</v>
+        <v>2366768.068042661</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17338441.47276634</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484434</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5374318.822904856</v>
+        <v>5449727.984203261</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>332.4291174559665</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.4845819350081</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.129390960577833</v>
       </c>
       <c r="X4" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>349.6444223435896</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,13 +908,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>331.484581935008</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491226</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
         <v>93.17921052631581</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,13 +1063,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>60.02665493701521</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>8.129390960577833</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>284.3353719371198</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>32.77389691395845</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1300,13 +1300,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>111.5098183264943</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>113.1067293763234</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1534,10 +1534,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>188.4544525887585</v>
+        <v>132.9029306024364</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>143.8505163105463</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>155.1461723647466</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>129.5445345985668</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>103.8284742946036</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,13 +2479,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>216.8805964716355</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2713,10 +2713,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>35.75633396116255</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3047,7 +3047,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791327482</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225668</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419.2974898580658</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>431.021963166418</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>428.811602055307</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>426.6979124712948</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8496703728914</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>394.6447681409758</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>283.499768089223</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791309155</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.07627015600848</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>215.1274699336989</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>253.8909947341604</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>356.2516956435188</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>398.0678151210841</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>412.2119538644895</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.4641775413502</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.1613476098044</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>168.0970094796144</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4801279484996</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>165.3213387897772</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>172.2008985758685</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1962773024377</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7640676445363</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>85.03426481107853</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.46455815968895</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>73.82108989256653</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>272.9095858174328</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>281.3468681262809</v>
+        <v>176.8267172206259</v>
       </c>
       <c r="W37" t="n">
-        <v>266.5670554475785</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1987521979288</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4063890570399</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.2974898580658</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C38" t="n">
-        <v>431.021963166418</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>428.811602055307</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E38" t="n">
-        <v>426.6979124712948</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8496703728914</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6447681409758</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>283.499768089223</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.07627015600848</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T38" t="n">
-        <v>215.1274699336989</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U38" t="n">
-        <v>253.8909947341604</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V38" t="n">
-        <v>356.2516956435188</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>398.0678151210841</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>412.2119538644895</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.4641775413502</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.79738943108397</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0970094796144</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>161.4801279484996</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>165.3213387897772</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2008985758685</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>161.1962773024377</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7640676445363</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>85.03426481107853</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.46455815968895</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9098700929904</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>240.6815670353364</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>272.9095858174328</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>281.3468681262809</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5670554475785</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1987521979288</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>419.2974898580658</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C41" t="n">
-        <v>431.021963166418</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>428.811602055307</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E41" t="n">
-        <v>426.6979124712948</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8496703728914</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>394.6447681409758</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>283.499768089223</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.07627015600848</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T41" t="n">
-        <v>215.1274699336989</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U41" t="n">
-        <v>253.8909947341604</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V41" t="n">
-        <v>68.55152497676204</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>398.0678151210841</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>412.2119538644895</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.4641775413502</v>
+        <v>404.2032624633421</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.1613476098044</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.0970094796144</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4801279484996</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>165.3213387897772</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2008985758685</v>
+        <v>65.54144271872147</v>
       </c>
       <c r="G43" t="n">
-        <v>161.1962773024377</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7640676445363</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.46455815968895</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9098700929904</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>240.6815670353364</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>36.17350339275126</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>281.3468681262809</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>266.5670554475785</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1987521979288</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4063890570399</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>419.2974898580658</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C44" t="n">
-        <v>431.021963166418</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>428.811602055307</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E44" t="n">
-        <v>426.6979124712948</v>
+        <v>429.4369973932864</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8496703728914</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>394.6447681409758</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.07627015600848</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T44" t="n">
-        <v>215.1274699336989</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U44" t="n">
-        <v>253.8909947341604</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V44" t="n">
-        <v>352.0512930659862</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>398.0678151210841</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>412.2119538644895</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.4641775413502</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>187.1613476098044</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0970094796144</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.4801279484996</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>165.3213387897772</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2008985758685</v>
+        <v>93.15725658380971</v>
       </c>
       <c r="G46" t="n">
-        <v>161.1962773024377</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7640676445363</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.46455815968895</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9098700929904</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>3.945484610654187</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9095858174328</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>281.3468681262809</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>266.5670554475785</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1987521979288</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4063890570399</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>557.5168885550254</v>
+        <v>1250.721030006719</v>
       </c>
       <c r="C2" t="n">
-        <v>523.4148197788528</v>
+        <v>822.1393557439874</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>393.5576814812557</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4364,16 +4364,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449919</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.7760549995292</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4525,13 +4525,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>1697.183430080417</v>
+        <v>1688.971924059632</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1668.990785889678</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1230.848313073101</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>794.9385282475458</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>765.2041874462451</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191209</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233714</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>857.0776321906106</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.4652647208</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2042.329799663912</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>2042.329799663912</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>2041.51474911535</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>2026.412689735065</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>2022.166970075122</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993474</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970912</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>784.8543544130284</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>612.2926428962534</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>446.4146500977761</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>276.6566463485133</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>216.0236615636495</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179229</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308786</v>
       </c>
       <c r="V7" t="n">
-        <v>1688.971924059632</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1257.665779765508</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1012.27402509892</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>784.8543544130284</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>408.8145501306011</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>374.7124813544285</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="U8" t="n">
-        <v>1217.893900270473</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="V8" t="n">
-        <v>855.2769502042993</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="W8" t="n">
-        <v>450.4214956153326</v>
+        <v>2636.140829505129</v>
       </c>
       <c r="X8" t="n">
-        <v>435.3194362350473</v>
+        <v>2621.038770124844</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.0737165751048</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.969308202876</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.826835386299</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2748761282464</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8770447515103</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>96.74689019472693</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.5847882747848</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2292.362648977993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2292.362648977993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2292.362648977993</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3272.542315548299</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4100.852190381695</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4647.35097634029</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4816.505041093346</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4732.853167277183</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4512.785940150222</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4253.563637467239</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3890.946687401065</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.697465808819</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.55500238813</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.268878687783</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.5018458131598</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>400.9550957963553</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>306.834681123309</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4508427394706</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.0657530056545</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.2915261137022</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.8057468929229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>998.6812073955045</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C13" t="n">
-        <v>826.1194958787295</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D13" t="n">
-        <v>660.2415030802522</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E13" t="n">
-        <v>490.4834993309894</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>490.4834993309894</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>324.8922243568171</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>184.9900500471916</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>457.6682405576921</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>875.8781223256532</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.571889430038</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2691.571889430038</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2445.692443008494</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2167.259442261599</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1880.30393413203</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1608.277529718321</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1417.919496800383</v>
+        <v>1342.139337312952</v>
       </c>
       <c r="Y13" t="n">
-        <v>1190.499826114491</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2232.363075206155</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1794.220602389578</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2748761282468</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8770447515107</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>96.74689019472693</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I14" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.5847882747848</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2440.995046485822</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.174713056128</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.484587889524</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4795.983373848119</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4816.505041093346</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4732.853167277183</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4512.785940150222</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4253.563637467239</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3890.946687401065</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3486.091232812098</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3066.948769391409</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2658.662645691063</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.5018458131598</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>400.9550957963553</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>306.834681123309</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.4508427394706</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.0657530056545</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.2915261137022</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.8057468929229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1077.850342653187</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C16" t="n">
-        <v>905.2886311364119</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D16" t="n">
-        <v>739.4106383379346</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>569.6526345886718</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>392.9455805504281</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>236.2322751314924</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6682405576924</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>875.8781223256535</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2553.748342022663</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.868895601118</v>
+        <v>2428.826016220498</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.435894854223</v>
+        <v>2150.393015473603</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.480386724653</v>
+        <v>1863.437507344034</v>
       </c>
       <c r="W16" t="n">
-        <v>1742.480386724653</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X16" t="n">
-        <v>1497.088632058066</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y16" t="n">
-        <v>1269.668961372174</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5525,22 +5525,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5558,7 +5558,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477107</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309356</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
         <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
         <v>267.852115244952</v>
@@ -5698,7 +5698,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
         <v>2454.80183470935</v>
@@ -5707,7 +5707,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
         <v>1617.386921419177</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5777,25 +5777,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,31 +5999,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
@@ -6032,7 +6032,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>864.709772534792</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>692.148061018017</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>526.2700682195397</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>356.5120644702766</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6148,7 +6148,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6178,19 +6178,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1529.339816606258</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1283.948061939671</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.528391253779</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>620.5788526445006</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>443.8717986062568</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>278.2805236320845</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>138.378349322459</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,40 +6710,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6868,13 +6868,13 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
         <v>2718.920450173579</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2511.083736995628</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.708016625509</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.564984246411</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.556991851163</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>786.4563147068279</v>
+        <v>793.2056155771589</v>
       </c>
       <c r="G35" t="n">
-        <v>387.8252357765494</v>
+        <v>391.8077842004228</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4618336662232</v>
+        <v>102.6776296436391</v>
       </c>
       <c r="I35" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>536.716521119141</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.126779330178</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N35" t="n">
-        <v>2548.949291195806</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>3529.128957766112</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>4357.438832599508</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>4903.937618558103</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
-        <v>5073.09168331116</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4992.206561941453</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4774.90608726095</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4518.450537024424</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4158.600339404708</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.511637262199</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3340.135926287968</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2934.616555034079</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.1771174941583</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.0868286407115</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>127.5255068266808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1161.152727152903</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C37" t="n">
-        <v>991.3577680825849</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>828.246527730565</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>661.2552764277598</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>487.3149748359733</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>324.4904523082584</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>187.3550304450904</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>190.753212903686</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>468.2233615475945</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>889.1449373883286</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1796.310995872432</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2218.691939170987</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2568.910527214101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2739.814996151207</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2721.163927303036</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2721.163927303036</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2646.597169835797</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2370.93092153536</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2086.742165852248</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W37" t="n">
-        <v>1817.482513884996</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X37" t="n">
-        <v>1574.857511664866</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y37" t="n">
-        <v>1350.204593425432</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2511.083736995628</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2075.708016625509</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.56498424641</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.556991851163</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>786.456314706828</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>387.8252357765494</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>536.716521119141</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2548.949291195806</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N38" t="n">
-        <v>2548.949291195806</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O38" t="n">
-        <v>3529.128957766112</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P38" t="n">
-        <v>4357.438832599508</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q38" t="n">
-        <v>4903.937618558103</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R38" t="n">
-        <v>5073.09168331116</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S38" t="n">
-        <v>4992.206561941454</v>
+        <v>5029.390139722815</v>
       </c>
       <c r="T38" t="n">
-        <v>4774.906087260951</v>
+        <v>4809.322912595853</v>
       </c>
       <c r="U38" t="n">
-        <v>4518.450537024425</v>
+        <v>4550.10060991287</v>
       </c>
       <c r="V38" t="n">
-        <v>4158.600339404708</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.511637262199</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3340.135926287967</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2934.616555034078</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.1771174941583</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0868286407115</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>127.5255068266808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1161.152727152902</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>991.3577680825849</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>828.246527730565</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>661.2552764277598</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>487.3149748359734</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>324.4904523082586</v>
+        <v>242.163014580405</v>
       </c>
       <c r="H40" t="n">
-        <v>187.3550304450905</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>190.753212903686</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K40" t="n">
-        <v>468.2233615475945</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>889.1449373883286</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1796.310995872432</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2218.691939170987</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2568.910527214101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2739.814996151207</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2721.163927303036</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2564.68931104749</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2321.576617072402</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2045.910368771965</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1761.721613088853</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1492.461961121602</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1249.836958901472</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1249.836958901472</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2505.152997546715</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2069.777277176596</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1636.634244797498</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.62625240225</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>780.5255752579155</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>381.8944963276367</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>95.53109421731048</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I41" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>512.1561252921894</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1346.506417250367</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2421.566383503226</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2421.566383503226</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N41" t="n">
-        <v>2421.566383503226</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O41" t="n">
-        <v>3401.746050073533</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P41" t="n">
-        <v>4230.055924906929</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q41" t="n">
-        <v>4776.554710865524</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R41" t="n">
-        <v>4776.554710865524</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S41" t="n">
-        <v>4695.669589495817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>4478.369114815314</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U41" t="n">
-        <v>4221.913564578787</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V41" t="n">
-        <v>4152.669599955795</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W41" t="n">
-        <v>3750.580897813286</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X41" t="n">
-        <v>3334.205186839054</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
-        <v>2928.685815585165</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>400.1560891917988</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>306.0356745187525</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>222.6518361349141</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
-        <v>137.266746401098</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>121.5947673777681</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1069.328790925123</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C43" t="n">
-        <v>899.5338318548048</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D43" t="n">
-        <v>736.4225915027849</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E43" t="n">
-        <v>569.4313401999797</v>
+        <v>473.9577670482354</v>
       </c>
       <c r="F43" t="n">
-        <v>395.4910386081933</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>232.6665160804785</v>
+        <v>242.163014580405</v>
       </c>
       <c r="H43" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>184.8224734547733</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K43" t="n">
-        <v>462.2926220986819</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.2141979394158</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1790.38025642352</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2212.761199722074</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2562.979787765189</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2733.884256702293</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2715.233187854123</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2558.758571598577</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2315.64587762349</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2279.10698530758</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1994.918229624468</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1725.658577657216</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1483.033575437086</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1258.380657197652</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2218.789595436388</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C44" t="n">
-        <v>1783.413875066269</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
-        <v>1350.270842687171</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E44" t="n">
-        <v>919.2628502919239</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>494.1621731475891</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>95.53109421731048</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>95.53109421731048</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>512.1561252921894</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1346.506417250367</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2421.566383503226</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2421.566383503226</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N44" t="n">
-        <v>2421.566383503226</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O44" t="n">
-        <v>3401.746050073533</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P44" t="n">
-        <v>4230.055924906929</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q44" t="n">
-        <v>4776.554710865524</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R44" t="n">
-        <v>4776.554710865524</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S44" t="n">
-        <v>4695.669589495818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4478.369114815315</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U44" t="n">
-        <v>4221.913564578789</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V44" t="n">
-        <v>3866.306197845469</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W44" t="n">
-        <v>3464.21749570296</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X44" t="n">
-        <v>3047.841784728728</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
-        <v>2642.322413474839</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>400.1560891917988</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>306.0356745187525</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>222.6518361349141</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
-        <v>137.266746401098</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>121.5947673777681</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1069.328790925122</v>
+        <v>1098.710185817962</v>
       </c>
       <c r="C46" t="n">
-        <v>899.5338318548048</v>
+        <v>926.1484743011873</v>
       </c>
       <c r="D46" t="n">
-        <v>736.4225915027849</v>
+        <v>760.27048150271</v>
       </c>
       <c r="E46" t="n">
-        <v>569.4313401999797</v>
+        <v>590.5124777534472</v>
       </c>
       <c r="F46" t="n">
-        <v>395.4910386081933</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>232.6665160804785</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>95.53109421731048</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I46" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>184.8224734547733</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
-        <v>462.2926220986819</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.2141979394158</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1790.38025642352</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2212.761199722074</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P46" t="n">
-        <v>2562.979787765189</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q46" t="n">
-        <v>2733.884256702293</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R46" t="n">
-        <v>2715.233187854123</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S46" t="n">
-        <v>2558.758571598577</v>
+        <v>2559.679081471577</v>
       </c>
       <c r="T46" t="n">
-        <v>2554.773233608017</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U46" t="n">
-        <v>2279.10698530758</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V46" t="n">
-        <v>1994.918229624467</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="W46" t="n">
-        <v>1725.658577657216</v>
+        <v>1763.340229889429</v>
       </c>
       <c r="X46" t="n">
-        <v>1483.033575437086</v>
+        <v>1517.948475222841</v>
       </c>
       <c r="Y46" t="n">
-        <v>1258.380657197652</v>
+        <v>1290.52880453695</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>203.2851159259061</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,13 +8231,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741828</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8377,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388476011</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>935.7854229747782</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>20.72895681336104</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10133,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8611230965935</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>103.8611230965935</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>420.8333647220999</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>420.8333647220999</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>287.7001706667536</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>54.48338453116318</v>
+        <v>110.0349065174852</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>287.7001706667536</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>8.789189859684001</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>113.8761173587625</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>52.42554389793585</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>52.01701577190886</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627266</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9098700929904</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>166.8604771427699</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>107.2592358276479</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.36395817872038</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.0953302292553</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4063890570399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>287.7001706667568</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>109.3985407791399</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.03426481107853</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>236.7360824246815</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>283.499768089223</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>4.200402577532673</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>81.78272691405162</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.03426481107853</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.7360824246822</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>453446.4422937315</v>
+        <v>461901.3239092484</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>453446.4422937315</v>
+        <v>463423.6439398654</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>454584.2216307097</v>
+        <v>475241.560028722</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>454584.2216307096</v>
+        <v>475241.5600287219</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>476180.5655035927</v>
+        <v>475241.560028722</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>476180.5655035927</v>
+        <v>475241.560028722</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>455523.2271055802</v>
+        <v>475241.560028722</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>455523.2271055802</v>
+        <v>475241.560028722</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="C2" t="n">
         <v>509339.9538958881</v>
@@ -26320,40 +26320,40 @@
         <v>509339.9538958881</v>
       </c>
       <c r="E2" t="n">
-        <v>478758.8180246649</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="F2" t="n">
-        <v>478758.8180246649</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="G2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="H2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="I2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="J2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="K2" t="n">
         <v>500514.7049304847</v>
       </c>
       <c r="L2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="M2" t="n">
-        <v>502003.5899789123</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="N2" t="n">
-        <v>502003.5899789123</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="O2" t="n">
-        <v>480247.7030730922</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="P2" t="n">
-        <v>480247.7030730923</v>
+        <v>500514.7049304846</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501638</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998257</v>
       </c>
       <c r="E3" t="n">
-        <v>232840.2019932546</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20319.08402319052</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877268</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622149</v>
       </c>
       <c r="M3" t="n">
-        <v>194039.1781017873</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.975083327330943e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511645</v>
+        <v>154981.0317940153</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>52190.18470672003</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
-        <v>52190.18470672002</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962275</v>
@@ -26445,19 +26445,19 @@
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.8251096227</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>56904.58296562737</v>
+        <v>54561.82510962278</v>
       </c>
       <c r="N4" t="n">
-        <v>56904.58296562737</v>
+        <v>54561.82510962279</v>
       </c>
       <c r="O4" t="n">
-        <v>54532.94256272462</v>
+        <v>54561.82510962283</v>
       </c>
       <c r="P4" t="n">
-        <v>54532.94256272462</v>
+        <v>54561.82510962286</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73210.87662461886</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73210.87662461886</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77341.26571663664</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="N5" t="n">
-        <v>77341.26571663664</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="O5" t="n">
-        <v>72833.90373546297</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="P5" t="n">
-        <v>72833.90373546297</v>
+        <v>77718.23860579247</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114027.1854477915</v>
+        <v>114027.1854477913</v>
       </c>
       <c r="C6" t="n">
-        <v>256218.4861075013</v>
+        <v>215814.9403988538</v>
       </c>
       <c r="D6" t="n">
-        <v>256218.4861075014</v>
+        <v>275589.6395383587</v>
       </c>
       <c r="E6" t="n">
-        <v>120517.5547000714</v>
+        <v>185856.307654637</v>
       </c>
       <c r="F6" t="n">
-        <v>353357.7566933261</v>
+        <v>368211.4168756868</v>
       </c>
       <c r="G6" t="n">
-        <v>347915.557191879</v>
+        <v>368211.4168756869</v>
       </c>
       <c r="H6" t="n">
-        <v>368234.6412150696</v>
+        <v>368211.416875687</v>
       </c>
       <c r="I6" t="n">
-        <v>368234.6412150696</v>
+        <v>368211.4168756868</v>
       </c>
       <c r="J6" t="n">
-        <v>257220.1758700793</v>
+        <v>257196.9515306966</v>
       </c>
       <c r="K6" t="n">
-        <v>368234.6412150695</v>
+        <v>315165.5622369141</v>
       </c>
       <c r="L6" t="n">
-        <v>368234.6412150696</v>
+        <v>358819.1151490646</v>
       </c>
       <c r="M6" t="n">
-        <v>173718.5631948609</v>
+        <v>216011.2459376994</v>
       </c>
       <c r="N6" t="n">
-        <v>367757.7412966483</v>
+        <v>368211.4168756867</v>
       </c>
       <c r="O6" t="n">
-        <v>352880.8567749045</v>
+        <v>368211.4168756867</v>
       </c>
       <c r="P6" t="n">
-        <v>352880.8567749046</v>
+        <v>368211.4168756867</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992886</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26790,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.126260273337</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.126260273337</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.27292082779</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1268.27292082779</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.138677716381</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.138677716381</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992927</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.718854159163678e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939274</v>
       </c>
       <c r="E4" t="n">
-        <v>779.8304027532322</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.13424311140892</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939274</v>
       </c>
       <c r="M4" t="n">
-        <v>769.8428201962768</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939274</v>
       </c>
       <c r="M4" t="n">
-        <v>779.8304027532322</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>74.13424311140892</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.254829457195569</v>
+      </c>
+      <c r="E2" t="n">
+        <v>97.00787993732121</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.71868052833497</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>261.1767494089935</v>
       </c>
       <c r="X4" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>72.39215243646908</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>114.9133285608461</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>275.956562087696</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>147.2153150401801</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>50.04145816404291</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>26.99333424003497</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>4.820566934132988e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.739084921992886</v>
+        <v>9.697685318346741e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>2.739084921992886</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739084921992886</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.739084921992886</v>
+        <v>1.005190366354287e-12</v>
       </c>
       <c r="P46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.739084921992886</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,10 +34699,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>203.2851159259061</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,13 +34951,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35027,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741828</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388476011</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>935.7854229747782</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908061</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850282</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>20.72895681336104</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36853,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37236,7 +37236,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956001</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512943</v>
@@ -37245,7 +37245,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,16 +37306,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8611230965935</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.19331236107357</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2728774180895</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>425.1733089300344</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>466.8642032865516</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>103.8611230965935</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.19331236107354</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2728774180895</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>425.1733089300344</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>466.8642032865516</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>420.8333647220999</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.19331236107354</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>280.2728774180895</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>425.1733089300344</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>466.8642032865515</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>426.6474174732871</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>420.8333647220999</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.19331236107354</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>280.2728774180895</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>425.1733089300344</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>466.8642032865515</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>426.6474174732871</v>
+        <v>423.9083325512956</v>
       </c>
       <c r="P46" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
